--- a/biology/Botanique/Thymelaea_microphylla/Thymelaea_microphylla.xlsx
+++ b/biology/Botanique/Thymelaea_microphylla/Thymelaea_microphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thymeleae microphylla est un arbrisseau ligneux à tige très ramifiée.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est généralement rencontrée dans les pâturages arides et désertiques, très commun dans le sous secteur des hauts plateaux algérois et oranais (Algérie), ainsi que dans le sous secteur des hauts plateaux constantinois...
 </t>
